--- a/raw_data/20200818_saline/20200818_Sensor1_Test_72.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_72.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D33DE55-4B2F-4B21-8EDF-085A1544E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>64088.406040</v>
+        <v>64088.406040000002</v>
       </c>
       <c r="B2" s="1">
-        <v>17.802335</v>
+        <v>17.802334999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>897.449000</v>
+        <v>897.44899999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.978000</v>
+        <v>-202.97800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>64099.086890</v>
+        <v>64099.086889999999</v>
       </c>
       <c r="G2" s="1">
-        <v>17.805302</v>
+        <v>17.805302000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>916.121000</v>
+        <v>916.12099999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.802000</v>
+        <v>-171.80199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>64109.553996</v>
+        <v>64109.553996000002</v>
       </c>
       <c r="L2" s="1">
-        <v>17.808209</v>
+        <v>17.808209000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>940.196000</v>
+        <v>940.19600000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>64119.836528</v>
@@ -526,662 +942,662 @@
         <v>17.811066</v>
       </c>
       <c r="R2" s="1">
-        <v>947.234000</v>
+        <v>947.23400000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.473000</v>
+        <v>-105.473</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>64130.398338</v>
+        <v>64130.398337999999</v>
       </c>
       <c r="V2" s="1">
-        <v>17.814000</v>
+        <v>17.814</v>
       </c>
       <c r="W2" s="1">
-        <v>954.109000</v>
+        <v>954.10900000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.017200</v>
+        <v>-90.017200000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>64140.491923</v>
+        <v>64140.491923000001</v>
       </c>
       <c r="AA2" s="1">
         <v>17.816803</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.429000</v>
+        <v>961.42899999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.878400</v>
+        <v>-77.878399999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>64150.741782</v>
+        <v>64150.741781999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.819650</v>
+        <v>17.819649999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.119000</v>
+        <v>966.11900000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.403300</v>
+        <v>-75.403300000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>64160.873540</v>
+        <v>64160.873540000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.822465</v>
+        <v>17.822465000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.450000</v>
+        <v>973.45</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.856200</v>
+        <v>-79.856200000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>64171.435836</v>
+        <v>64171.435835999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.825399</v>
+        <v>17.825399000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.605000</v>
+        <v>981.60500000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.212700</v>
+        <v>-91.212699999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>64182.467356</v>
+        <v>64182.467356000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.828463</v>
+        <v>17.828462999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.561000</v>
+        <v>991.56100000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>64193.590639</v>
+        <v>64193.590639000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>17.831553</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.902000</v>
+        <v>999.90200000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.142000</v>
+        <v>-124.142</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>64204.160383</v>
+        <v>64204.160383000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.834489</v>
+        <v>17.834489000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.880000</v>
+        <v>1038.8800000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.085000</v>
+        <v>-195.08500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>64215.221666</v>
+        <v>64215.221665999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.837562</v>
+        <v>17.837561999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.551000</v>
+        <v>-309.55099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>64226.765058</v>
+        <v>64226.765057999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.840768</v>
+        <v>17.840768000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.102000</v>
+        <v>-489.10199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>64237.816916</v>
+        <v>64237.816916000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.843838</v>
+        <v>17.843838000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.810000</v>
+        <v>1334.81</v>
       </c>
       <c r="BV2" s="1">
-        <v>-685.673000</v>
+        <v>-685.673</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>64248.498261</v>
+        <v>64248.498261000001</v>
       </c>
       <c r="BY2" s="1">
         <v>17.846805</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1469.690000</v>
+        <v>1469.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-893.742000</v>
+        <v>-893.74199999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>64259.421654</v>
+        <v>64259.421653999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.849839</v>
+        <v>17.849838999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1820.170000</v>
+        <v>1820.17</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1385.970000</v>
+        <v>-1385.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>64089.098951</v>
       </c>
       <c r="B3" s="1">
-        <v>17.802527</v>
+        <v>17.802527000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>897.340000</v>
+        <v>897.34</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.959000</v>
+        <v>-202.959</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>64099.501559</v>
+        <v>64099.501558999997</v>
       </c>
       <c r="G3" s="1">
-        <v>17.805417</v>
+        <v>17.805416999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>916.093000</v>
+        <v>916.09299999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-172.123000</v>
+        <v>-172.12299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>64109.972128</v>
+        <v>64109.972128000001</v>
       </c>
       <c r="L3" s="1">
-        <v>17.808326</v>
+        <v>17.808326000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>940.280000</v>
+        <v>940.28</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.934000</v>
+        <v>-121.934</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>64120.192190</v>
+        <v>64120.192190000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.811164</v>
+        <v>17.811164000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>947.208000</v>
+        <v>947.20799999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.425000</v>
+        <v>-105.425</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>64130.742096</v>
+        <v>64130.742096000002</v>
       </c>
       <c r="V3" s="1">
-        <v>17.814095</v>
+        <v>17.814094999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>954.031000</v>
+        <v>954.03099999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.978600</v>
+        <v>-89.9786</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>64140.879326</v>
+        <v>64140.879326000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.816911</v>
+        <v>17.816911000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.442000</v>
+        <v>961.44200000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.823000</v>
+        <v>-77.822999999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>64151.172774</v>
+        <v>64151.172773999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.819770</v>
+        <v>17.819769999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.299000</v>
+        <v>966.29899999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.393600</v>
+        <v>-75.393600000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>64161.298104</v>
+        <v>64161.298104000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.822583</v>
+        <v>17.822583000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.468000</v>
+        <v>973.46799999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.838100</v>
+        <v>-79.838099999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>64171.872811</v>
+        <v>64171.872811000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.825520</v>
+        <v>17.825520000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.610000</v>
+        <v>981.61</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.211900</v>
+        <v>-91.2119</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>64182.832411</v>
+        <v>64182.832411000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.828565</v>
+        <v>17.828565000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.551000</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.661000</v>
+        <v>-108.661</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>64193.969617</v>
+        <v>64193.969617000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.831658</v>
+        <v>17.831658000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.913000</v>
+        <v>999.91300000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.146000</v>
+        <v>-124.146</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>64204.526928</v>
+        <v>64204.526927999999</v>
       </c>
       <c r="BE3" s="1">
         <v>17.834591</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.078000</v>
+        <v>-195.078</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>64215.991952</v>
+        <v>64215.991951999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.837776</v>
+        <v>17.837776000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.623000</v>
+        <v>-309.62299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>64227.188680</v>
+        <v>64227.188679999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.840886</v>
+        <v>17.840886000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.134000</v>
+        <v>-489.13400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>64238.238018</v>
+        <v>64238.238017999996</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.843955</v>
+        <v>17.843955000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="BV3" s="1">
-        <v>-685.621000</v>
+        <v>-685.62099999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>64248.990789</v>
+        <v>64248.990789000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.846942</v>
+        <v>17.846941999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1469.750000</v>
+        <v>1469.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-893.839000</v>
+        <v>-893.83900000000006</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>64260.015901</v>
+        <v>64260.015900999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.850004</v>
+        <v>17.850003999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1820.700000</v>
+        <v>1820.7</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1387.430000</v>
+        <v>-1387.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>64089.451143</v>
+        <v>64089.451142999998</v>
       </c>
       <c r="B4" s="1">
-        <v>17.802625</v>
+        <v>17.802624999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>897.527000</v>
+        <v>897.52700000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.031000</v>
+        <v>-203.03100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64099.846761</v>
+        <v>64099.846761000001</v>
       </c>
       <c r="G4" s="1">
-        <v>17.805513</v>
+        <v>17.805513000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>915.469000</v>
+        <v>915.46900000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.776000</v>
+        <v>-171.77600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>64110.318299</v>
+        <v>64110.318298999999</v>
       </c>
       <c r="L4" s="1">
         <v>17.808422</v>
       </c>
       <c r="M4" s="1">
-        <v>940.190000</v>
+        <v>940.19</v>
       </c>
       <c r="N4" s="1">
-        <v>-122.150000</v>
+        <v>-122.15</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>64120.542371</v>
+        <v>64120.542371000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.811262</v>
+        <v>17.811261999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>947.261000</v>
+        <v>947.26099999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.428000</v>
+        <v>-105.428</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>64131.165153</v>
+        <v>64131.165153000002</v>
       </c>
       <c r="V4" s="1">
-        <v>17.814213</v>
+        <v>17.814212999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.035000</v>
+        <v>954.03499999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.916700</v>
+        <v>-89.916700000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>64141.305394</v>
+        <v>64141.305394000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.817029</v>
+        <v>17.817029000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.447000</v>
+        <v>961.447</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.925100</v>
+        <v>-77.9251</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>64151.485750</v>
+        <v>64151.48575</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.819857</v>
+        <v>17.819856999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.161000</v>
+        <v>966.16099999999994</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.480200</v>
+        <v>-75.480199999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>64161.644808</v>
+        <v>64161.644807999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.822679</v>
+        <v>17.822679000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.472000</v>
+        <v>973.47199999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.855100</v>
+        <v>-79.855099999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>64172.232905</v>
+        <v>64172.232904999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.825620</v>
+        <v>17.825620000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.607000</v>
+        <v>981.60699999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.209400</v>
+        <v>-91.209400000000002</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>64183.196475</v>
+        <v>64183.196474999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.828666</v>
+        <v>17.828665999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.551000</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.672000</v>
+        <v>-108.672</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>64194.329212</v>
+        <v>64194.329211999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.831758</v>
+        <v>17.831758000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.123000</v>
+        <v>-124.123</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>64205.251086</v>
+        <v>64205.251085999997</v>
       </c>
       <c r="BE4" s="1">
         <v>17.834792</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.092000</v>
+        <v>-195.09200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>64216.370399</v>
+        <v>64216.370398999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.837881</v>
+        <v>17.837880999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.610000</v>
+        <v>-309.61</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>64227.596352</v>
@@ -1190,210 +1606,210 @@
         <v>17.840999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.116000</v>
+        <v>-489.11599999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>64238.663091</v>
+        <v>64238.663091000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.844073</v>
+        <v>17.844073000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.710000</v>
+        <v>1334.71</v>
       </c>
       <c r="BV4" s="1">
-        <v>-685.526000</v>
+        <v>-685.52599999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>64249.740739</v>
+        <v>64249.740739000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.847150</v>
+        <v>17.847149999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1469.760000</v>
+        <v>1469.76</v>
       </c>
       <c r="CA4" s="1">
-        <v>-893.830000</v>
+        <v>-893.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>64260.866500</v>
+        <v>64260.866499999996</v>
       </c>
       <c r="CD4" s="1">
         <v>17.850241</v>
       </c>
       <c r="CE4" s="1">
-        <v>1819.750000</v>
+        <v>1819.75</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1386.140000</v>
+        <v>-1386.14</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>64089.789879</v>
+        <v>64089.789879000004</v>
       </c>
       <c r="B5" s="1">
         <v>17.802719</v>
       </c>
       <c r="C5" s="1">
-        <v>897.496000</v>
+        <v>897.49599999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.929000</v>
+        <v>-202.929</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>64100.192968</v>
+        <v>64100.192968000003</v>
       </c>
       <c r="G5" s="1">
         <v>17.805609</v>
       </c>
       <c r="H5" s="1">
-        <v>916.051000</v>
+        <v>916.05100000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.847000</v>
+        <v>-171.84700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>64110.662028</v>
+        <v>64110.662027999999</v>
       </c>
       <c r="L5" s="1">
-        <v>17.808517</v>
+        <v>17.808516999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>940.287000</v>
+        <v>940.28700000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.093000</v>
+        <v>-122.093</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>64120.966779</v>
+        <v>64120.966779000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.811380</v>
+        <v>17.81138</v>
       </c>
       <c r="R5" s="1">
-        <v>947.277000</v>
+        <v>947.27700000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.459000</v>
+        <v>-105.459</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>64131.444895</v>
+        <v>64131.444895000001</v>
       </c>
       <c r="V5" s="1">
-        <v>17.814290</v>
+        <v>17.81429</v>
       </c>
       <c r="W5" s="1">
-        <v>954.084000</v>
+        <v>954.08399999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.981700</v>
+        <v>-89.981700000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>64141.599986</v>
+        <v>64141.599986000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.817111</v>
+        <v>17.817111000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.426000</v>
+        <v>961.42600000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.853300</v>
+        <v>-77.853300000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>64151.830966</v>
+        <v>64151.830966000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.819953</v>
+        <v>17.819953000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.145000</v>
+        <v>966.14499999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.410900</v>
+        <v>-75.410899999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>64161.986587</v>
+        <v>64161.986586999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.822774</v>
+        <v>17.822773999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.876400</v>
+        <v>-79.876400000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>64172.591513</v>
+        <v>64172.591512999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.825720</v>
+        <v>17.82572</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.602000</v>
+        <v>981.60199999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.208800</v>
+        <v>-91.208799999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>64183.923610</v>
+        <v>64183.923609999998</v>
       </c>
       <c r="AU5" s="1">
         <v>17.828868</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.544000</v>
+        <v>991.54399999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.689000</v>
+        <v>-108.68899999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>64195.048875</v>
@@ -1402,28 +1818,28 @@
         <v>17.831958</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.893000</v>
+        <v>999.89300000000003</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.130000</v>
+        <v>-124.13</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>64205.636510</v>
+        <v>64205.636509999997</v>
       </c>
       <c r="BE5" s="1">
         <v>17.834899</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.075000</v>
+        <v>-195.07499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>64216.771664</v>
@@ -1432,2054 +1848,2054 @@
         <v>17.837992</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.840000</v>
+        <v>1105.8399999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.561000</v>
+        <v>-309.56099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>64227.994143</v>
+        <v>64227.994143000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.841109</v>
+        <v>17.841108999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.147000</v>
+        <v>-489.14699999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>64239.402130</v>
+        <v>64239.402130000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.844278</v>
+        <v>17.844277999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.710000</v>
+        <v>1334.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-685.504000</v>
+        <v>-685.50400000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>64249.851844</v>
+        <v>64249.851843999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.847181</v>
+        <v>17.847180999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1469.790000</v>
+        <v>1469.79</v>
       </c>
       <c r="CA5" s="1">
-        <v>-893.829000</v>
+        <v>-893.82899999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>64261.094660</v>
+        <v>64261.094660000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.850304</v>
+        <v>17.850304000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1819.700000</v>
+        <v>1819.7</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1386.370000</v>
+        <v>-1386.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>64090.133110</v>
+        <v>64090.133110000002</v>
       </c>
       <c r="B6" s="1">
-        <v>17.802815</v>
+        <v>17.802814999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>897.497000</v>
+        <v>897.49699999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.936000</v>
+        <v>-202.93600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>64100.625976</v>
+        <v>64100.625976000003</v>
       </c>
       <c r="G6" s="1">
-        <v>17.805729</v>
+        <v>17.805728999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>916.164000</v>
+        <v>916.16399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.730000</v>
+        <v>-171.73</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>64111.091596</v>
+        <v>64111.091595999998</v>
       </c>
       <c r="L6" s="1">
-        <v>17.808637</v>
+        <v>17.808637000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.221000</v>
+        <v>940.221</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.015000</v>
+        <v>-122.015</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>64121.254622</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.811460</v>
+        <v>17.81146</v>
       </c>
       <c r="R6" s="1">
-        <v>947.289000</v>
+        <v>947.28899999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.438000</v>
+        <v>-105.438</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>64131.787640</v>
+        <v>64131.787640000002</v>
       </c>
       <c r="V6" s="1">
-        <v>17.814385</v>
+        <v>17.814385000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.943000</v>
+        <v>953.94299999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.983400</v>
+        <v>-89.983400000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>64141.945735</v>
+        <v>64141.945735000001</v>
       </c>
       <c r="AA6" s="1">
         <v>17.817207</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.401000</v>
+        <v>961.40099999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.906700</v>
+        <v>-77.906700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>64152.174700</v>
+        <v>64152.174700000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.820049</v>
+        <v>17.820049000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.118000</v>
+        <v>966.11800000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.411700</v>
+        <v>-75.411699999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>64162.690374</v>
+        <v>64162.690373999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.822970</v>
+        <v>17.822970000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.457000</v>
+        <v>973.45699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.860800</v>
+        <v>-79.860799999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>64173.312201</v>
+        <v>64173.312201000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.825920</v>
+        <v>17.82592</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.605000</v>
+        <v>981.60500000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.213000</v>
+        <v>-91.212999999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>64184.310490</v>
+        <v>64184.310490000003</v>
       </c>
       <c r="AU6" s="1">
         <v>17.828975</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.551000</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>64195.436251</v>
+        <v>64195.436250999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.832066</v>
+        <v>17.832066000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.138000</v>
+        <v>-124.13800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>64205.999550</v>
+        <v>64205.99955</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.835000</v>
+        <v>17.835000000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.074000</v>
+        <v>-195.07400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>64217.461133</v>
+        <v>64217.461132999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.838184</v>
+        <v>17.838183999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.840000</v>
+        <v>1105.8399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.555000</v>
+        <v>-309.55500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>64228.733680</v>
+        <v>64228.733679999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.841315</v>
+        <v>17.841315000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.139000</v>
+        <v>-489.13900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>64239.535056</v>
+        <v>64239.535056000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.844315</v>
+        <v>17.844315000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.690000</v>
+        <v>1334.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-685.458000</v>
+        <v>-685.45799999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>64250.281876</v>
+        <v>64250.281876000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.847301</v>
+        <v>17.847301000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1469.800000</v>
+        <v>1469.8</v>
       </c>
       <c r="CA6" s="1">
-        <v>-893.788000</v>
+        <v>-893.78800000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>64261.611496</v>
+        <v>64261.611495999998</v>
       </c>
       <c r="CD6" s="1">
         <v>17.850448</v>
       </c>
       <c r="CE6" s="1">
-        <v>1820.480000</v>
+        <v>1820.48</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1387.460000</v>
+        <v>-1387.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>64090.552964</v>
+        <v>64090.552964000002</v>
       </c>
       <c r="B7" s="1">
-        <v>17.802931</v>
+        <v>17.802931000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>897.583000</v>
+        <v>897.58299999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.980000</v>
+        <v>-202.98</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>64100.889848</v>
+        <v>64100.889847999999</v>
       </c>
       <c r="G7" s="1">
-        <v>17.805803</v>
+        <v>17.805803000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>915.734000</v>
+        <v>915.73400000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.869000</v>
+        <v>-171.869</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>64111.356924</v>
       </c>
       <c r="L7" s="1">
-        <v>17.808710</v>
+        <v>17.808710000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.220000</v>
+        <v>940.22</v>
       </c>
       <c r="N7" s="1">
-        <v>-122.138000</v>
+        <v>-122.13800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>64121.600302</v>
+        <v>64121.600301999999</v>
       </c>
       <c r="Q7" s="1">
         <v>17.811556</v>
       </c>
       <c r="R7" s="1">
-        <v>947.279000</v>
+        <v>947.279</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.476000</v>
+        <v>-105.476</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>64132.131389</v>
+        <v>64132.131389000002</v>
       </c>
       <c r="V7" s="1">
-        <v>17.814481</v>
+        <v>17.814481000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.960000</v>
+        <v>953.96</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.038400</v>
+        <v>-90.038399999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>64142.297416</v>
+        <v>64142.297416000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.817305</v>
+        <v>17.817305000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.358000</v>
+        <v>961.35799999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.880300</v>
+        <v>-77.880300000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>64152.861197</v>
+        <v>64152.861196999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.820239</v>
+        <v>17.820239000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.173000</v>
+        <v>966.173</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.385500</v>
+        <v>-75.385499999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>64163.034597</v>
+        <v>64163.034596999998</v>
       </c>
       <c r="AK7" s="1">
         <v>17.823065</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.449000</v>
+        <v>973.44899999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.840300</v>
+        <v>-79.840299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>64173.675272</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.826021</v>
+        <v>17.826021000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.606000</v>
+        <v>981.60599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.190600</v>
+        <v>-91.190600000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>64184.676578</v>
+        <v>64184.676577999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.829077</v>
+        <v>17.829077000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.554000</v>
+        <v>991.55399999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.671000</v>
+        <v>-108.67100000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>64195.835530</v>
+        <v>64195.835529999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.832177</v>
+        <v>17.832177000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.917000</v>
+        <v>999.91700000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.124000</v>
+        <v>-124.124</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>64206.671655</v>
+        <v>64206.671654999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.835187</v>
+        <v>17.835187000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.088000</v>
+        <v>-195.08799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>64217.928334</v>
+        <v>64217.928333999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.838313</v>
+        <v>17.838312999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.598000</v>
+        <v>-309.59800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>64228.847264</v>
+        <v>64228.847264000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.841346</v>
+        <v>17.841346000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.153000</v>
+        <v>-489.15300000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>64239.945280</v>
+        <v>64239.94528</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.844429</v>
+        <v>17.844429000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1334.640000</v>
+        <v>1334.64</v>
       </c>
       <c r="BV7" s="1">
-        <v>-685.289000</v>
+        <v>-685.28899999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>64250.696531</v>
+        <v>64250.696531000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.847416</v>
+        <v>17.847415999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1469.730000</v>
+        <v>1469.73</v>
       </c>
       <c r="CA7" s="1">
-        <v>-893.900000</v>
+        <v>-893.9</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>64262.131335</v>
+        <v>64262.131334999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.850592</v>
+        <v>17.850591999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1820.060000</v>
+        <v>1820.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1386.950000</v>
+        <v>-1386.95</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>64090.827510</v>
+        <v>64090.827510000003</v>
       </c>
       <c r="B8" s="1">
-        <v>17.803008</v>
+        <v>17.803007999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>897.361000</v>
+        <v>897.36099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.932000</v>
+        <v>-202.93199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>64101.232585</v>
+        <v>64101.232584999998</v>
       </c>
       <c r="G8" s="1">
-        <v>17.805898</v>
+        <v>17.805897999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.113000</v>
+        <v>916.11300000000006</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.972000</v>
+        <v>-171.97200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>64111.701642</v>
       </c>
       <c r="L8" s="1">
-        <v>17.808806</v>
+        <v>17.808806000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.209000</v>
+        <v>940.20899999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.956000</v>
+        <v>-121.956</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>64121.950007</v>
+        <v>64121.950006999999</v>
       </c>
       <c r="Q8" s="1">
         <v>17.811653</v>
       </c>
       <c r="R8" s="1">
-        <v>947.234000</v>
+        <v>947.23400000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.502000</v>
+        <v>-105.502</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>64132.820344</v>
       </c>
       <c r="V8" s="1">
-        <v>17.814672</v>
+        <v>17.814672000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>954.087000</v>
+        <v>954.08699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.018000</v>
+        <v>-90.018000000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>64142.992256</v>
+        <v>64142.992255999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.817498</v>
+        <v>17.817498000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.442000</v>
+        <v>961.44200000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.876400</v>
+        <v>-77.876400000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>64153.204884</v>
+        <v>64153.204883999999</v>
       </c>
       <c r="AF8" s="1">
         <v>17.820335</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.100000</v>
+        <v>966.1</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.416500</v>
+        <v>-75.416499999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>64163.382789</v>
+        <v>64163.382789000003</v>
       </c>
       <c r="AK8" s="1">
         <v>17.823162</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.466000</v>
+        <v>973.46600000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.840900</v>
+        <v>-79.840900000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>64174.033383</v>
+        <v>64174.033383000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.826120</v>
+        <v>17.82612</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.605000</v>
+        <v>981.60500000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.226900</v>
+        <v>-91.226900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>64185.343656</v>
+        <v>64185.343655999997</v>
       </c>
       <c r="AU8" s="1">
         <v>17.829262</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.561000</v>
+        <v>991.56100000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.679000</v>
+        <v>-108.679</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>64196.305737</v>
+        <v>64196.305737000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>17.832307</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.917000</v>
+        <v>999.91700000000003</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.119000</v>
+        <v>-124.119</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>64207.118060</v>
+        <v>64207.118060000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.835311</v>
+        <v>17.835311000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.102000</v>
+        <v>-195.102</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>64218.303308</v>
+        <v>64218.303308000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.838418</v>
+        <v>17.838418000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.800000</v>
+        <v>1105.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.606000</v>
+        <v>-309.60599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>64229.232158</v>
+        <v>64229.232157999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.841453</v>
+        <v>17.841453000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.127000</v>
+        <v>-489.12700000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>64240.375777</v>
+        <v>64240.375777000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.844549</v>
+        <v>17.844549000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.680000</v>
+        <v>1334.68</v>
       </c>
       <c r="BV8" s="1">
-        <v>-685.302000</v>
+        <v>-685.30200000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>64251.143953</v>
+        <v>64251.143952999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.847540</v>
+        <v>17.847539999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1469.800000</v>
+        <v>1469.8</v>
       </c>
       <c r="CA8" s="1">
-        <v>-893.930000</v>
+        <v>-893.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>64262.680403</v>
+        <v>64262.680402999998</v>
       </c>
       <c r="CD8" s="1">
         <v>17.850745</v>
       </c>
       <c r="CE8" s="1">
-        <v>1819.620000</v>
+        <v>1819.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1386.590000</v>
+        <v>-1386.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>64091.169517</v>
+        <v>64091.169517000002</v>
       </c>
       <c r="B9" s="1">
         <v>17.803103</v>
       </c>
       <c r="C9" s="1">
-        <v>897.530000</v>
+        <v>897.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.949000</v>
+        <v>-202.94900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>64101.577330</v>
+        <v>64101.57733</v>
       </c>
       <c r="G9" s="1">
-        <v>17.805994</v>
+        <v>17.805993999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>916.121000</v>
+        <v>916.12099999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.001000</v>
+        <v>-172.001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>64112.046361</v>
+        <v>64112.046361000001</v>
       </c>
       <c r="L9" s="1">
         <v>17.808902</v>
       </c>
       <c r="M9" s="1">
-        <v>940.144000</v>
+        <v>940.14400000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.140000</v>
+        <v>-122.14</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>64122.647851</v>
+        <v>64122.647851000002</v>
       </c>
       <c r="Q9" s="1">
         <v>17.811847</v>
       </c>
       <c r="R9" s="1">
-        <v>947.238000</v>
+        <v>947.23800000000006</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.426000</v>
+        <v>-105.426</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>64133.163571</v>
+        <v>64133.163570999997</v>
       </c>
       <c r="V9" s="1">
-        <v>17.814768</v>
+        <v>17.814768000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>954.204000</v>
+        <v>954.20399999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.069100</v>
+        <v>-90.069100000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>64143.343458</v>
+        <v>64143.343458000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.817595</v>
+        <v>17.817595000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.380000</v>
+        <v>961.38</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.883900</v>
+        <v>-77.883899999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>64153.549634</v>
+        <v>64153.549634000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.820430</v>
+        <v>17.820430000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.266000</v>
+        <v>966.26599999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.462600</v>
+        <v>-75.462599999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>64164.039988</v>
+        <v>64164.039987999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.823344</v>
+        <v>17.823343999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.441000</v>
+        <v>973.44100000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.853900</v>
+        <v>-79.853899999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>64174.716870</v>
+        <v>64174.716869999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.826310</v>
+        <v>17.826309999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.612000</v>
+        <v>981.61199999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.213200</v>
+        <v>-91.213200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>64185.804471</v>
+        <v>64185.804471000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.829390</v>
+        <v>17.82939</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.552000</v>
+        <v>991.55200000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>64196.509606</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.832364</v>
+        <v>17.832363999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.906000</v>
+        <v>999.90599999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.131000</v>
+        <v>-124.131</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>64207.480603</v>
+        <v>64207.480603000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.835411</v>
+        <v>17.835411000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.880000</v>
+        <v>1038.8800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.076000</v>
+        <v>-195.07599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>64218.688727</v>
+        <v>64218.688727000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.838525</v>
+        <v>17.838525000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.525000</v>
+        <v>-309.52499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>64229.656734</v>
+        <v>64229.656733999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.841571</v>
+        <v>17.841570999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.152000</v>
+        <v>-489.15199999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>64240.798863</v>
+        <v>64240.798863000004</v>
       </c>
       <c r="BT9" s="1">
         <v>17.844666</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.750000</v>
+        <v>1334.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-685.214000</v>
+        <v>-685.21400000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>64251.567506</v>
+        <v>64251.567505999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.847658</v>
+        <v>17.847657999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1469.910000</v>
+        <v>1469.91</v>
       </c>
       <c r="CA9" s="1">
-        <v>-893.759000</v>
+        <v>-893.75900000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>64263.211585</v>
+        <v>64263.211584999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.850892</v>
+        <v>17.850892000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1820.630000</v>
+        <v>1820.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1387.680000</v>
+        <v>-1387.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>64091.509012</v>
+        <v>64091.509012000002</v>
       </c>
       <c r="B10" s="1">
-        <v>17.803197</v>
+        <v>17.803197000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>897.396000</v>
+        <v>897.39599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.964000</v>
+        <v>-202.964</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>64102.269222</v>
+        <v>64102.269222000003</v>
       </c>
       <c r="G10" s="1">
         <v>17.806186</v>
       </c>
       <c r="H10" s="1">
-        <v>916.116000</v>
+        <v>916.11599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.914000</v>
+        <v>-171.91399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>64112.739769</v>
       </c>
       <c r="L10" s="1">
-        <v>17.809094</v>
+        <v>17.809094000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>940.316000</v>
+        <v>940.31600000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.087000</v>
+        <v>-122.087</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>64122.997068</v>
+        <v>64122.997067999997</v>
       </c>
       <c r="Q10" s="1">
         <v>17.811944</v>
       </c>
       <c r="R10" s="1">
-        <v>947.261000</v>
+        <v>947.26099999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.397000</v>
+        <v>-105.39700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>64133.506765</v>
+        <v>64133.506764999998</v>
       </c>
       <c r="V10" s="1">
-        <v>17.814863</v>
+        <v>17.814862999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.030000</v>
+        <v>954.03</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.890800</v>
+        <v>-89.890799999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>64143.690655</v>
+        <v>64143.690654999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.817692</v>
+        <v>17.817692000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.410000</v>
+        <v>961.41</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.922100</v>
+        <v>-77.9221</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>64154.215730</v>
+        <v>64154.215730000004</v>
       </c>
       <c r="AF10" s="1">
         <v>17.820615</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.187000</v>
+        <v>966.18700000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.253300</v>
+        <v>-75.253299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>64164.428357</v>
+        <v>64164.428356999997</v>
       </c>
       <c r="AK10" s="1">
         <v>17.823452</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.456000</v>
+        <v>973.45600000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.850100</v>
+        <v>-79.850099999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>64175.133546</v>
+        <v>64175.133545999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.826426</v>
+        <v>17.826426000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.630000</v>
+        <v>981.63</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.207000</v>
+        <v>-91.206999999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>64186.169495</v>
+        <v>64186.169495000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.829492</v>
+        <v>17.829491999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.568000</v>
+        <v>991.56799999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.656000</v>
+        <v>-108.65600000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>64196.868697</v>
+        <v>64196.868696999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.832464</v>
+        <v>17.832464000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.896000</v>
+        <v>999.89599999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.159000</v>
+        <v>-124.15900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>64207.842684</v>
+        <v>64207.842684000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.835512</v>
+        <v>17.835512000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.091000</v>
+        <v>-195.09100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>64219.124202</v>
+        <v>64219.124201999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.838646</v>
+        <v>17.838646000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.910000</v>
+        <v>1105.9100000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.583000</v>
+        <v>-309.58300000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>64230.476622</v>
+        <v>64230.476622000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.841799</v>
+        <v>17.841799000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.185000</v>
+        <v>-489.185</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>64241.205584</v>
+        <v>64241.205584000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.844779</v>
+        <v>17.844778999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.810000</v>
+        <v>1334.81</v>
       </c>
       <c r="BV10" s="1">
-        <v>-685.145000</v>
+        <v>-685.14499999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>64251.989104</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.847775</v>
+        <v>17.847774999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1469.810000</v>
+        <v>1469.81</v>
       </c>
       <c r="CA10" s="1">
-        <v>-893.748000</v>
+        <v>-893.74800000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>64263.732398</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.851037</v>
+        <v>17.851037000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.250000</v>
+        <v>1821.25</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1386.680000</v>
+        <v>-1386.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>64092.191012</v>
+        <v>64092.191012000003</v>
       </c>
       <c r="B11" s="1">
         <v>17.803386</v>
       </c>
       <c r="C11" s="1">
-        <v>897.489000</v>
+        <v>897.48900000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.006000</v>
+        <v>-203.006</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>64102.610470</v>
+        <v>64102.61047</v>
       </c>
       <c r="G11" s="1">
-        <v>17.806281</v>
+        <v>17.806280999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>916.243000</v>
+        <v>916.24300000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.741000</v>
+        <v>-171.74100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>64113.087960</v>
+        <v>64113.087959999997</v>
       </c>
       <c r="L11" s="1">
-        <v>17.809191</v>
+        <v>17.809190999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>940.272000</v>
+        <v>940.27200000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.201000</v>
+        <v>-122.20099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>64123.347706</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.812041</v>
+        <v>17.812041000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>947.253000</v>
+        <v>947.25300000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.406000</v>
+        <v>-105.40600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>64134.160988</v>
+        <v>64134.160988000003</v>
       </c>
       <c r="V11" s="1">
-        <v>17.815045</v>
+        <v>17.815045000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.134000</v>
+        <v>954.13400000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.860300</v>
+        <v>-89.860299999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>64144.349806</v>
+        <v>64144.349805999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.817875</v>
+        <v>17.817875000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.459000</v>
+        <v>961.45899999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.816500</v>
+        <v>-77.816500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>64154.586240</v>
+        <v>64154.586239999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.820718</v>
+        <v>17.820717999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.259000</v>
+        <v>966.25900000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.495600</v>
+        <v>-75.495599999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>64164.777045</v>
+        <v>64164.777045000003</v>
       </c>
       <c r="AK11" s="1">
         <v>17.823549</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.463000</v>
+        <v>973.46299999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.859500</v>
+        <v>-79.859499999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>64175.522869</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.826534</v>
+        <v>17.826533999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.604000</v>
+        <v>981.60400000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.210200</v>
+        <v>-91.2102</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>64186.534583</v>
+        <v>64186.534583000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.829593</v>
+        <v>17.829592999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.552000</v>
+        <v>991.55200000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.692000</v>
+        <v>-108.69199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>64197.303720</v>
+        <v>64197.303720000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.832584</v>
+        <v>17.832584000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.909000</v>
+        <v>999.90899999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.137000</v>
+        <v>-124.137</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>64208.268746</v>
+        <v>64208.268746000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.835630</v>
+        <v>17.835629999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.062000</v>
+        <v>-195.06200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>64219.454524</v>
+        <v>64219.454524000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.838737</v>
+        <v>17.838736999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.820000</v>
+        <v>1105.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.587000</v>
+        <v>-309.58699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>64230.894748</v>
+        <v>64230.894747999999</v>
       </c>
       <c r="BO11" s="1">
         <v>17.841915</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.171000</v>
+        <v>-489.17099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>64241.618751</v>
+        <v>64241.618751000002</v>
       </c>
       <c r="BT11" s="1">
         <v>17.844894</v>
       </c>
       <c r="BU11" s="1">
-        <v>1334.840000</v>
+        <v>1334.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-685.132000</v>
+        <v>-685.13199999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>64252.438563</v>
+        <v>64252.438563000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.847900</v>
+        <v>17.847899999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1469.780000</v>
+        <v>1469.78</v>
       </c>
       <c r="CA11" s="1">
-        <v>-893.883000</v>
+        <v>-893.88300000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>64264.281497</v>
+        <v>64264.281497000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.851189</v>
+        <v>17.851189000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1820.730000</v>
+        <v>1820.73</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1386.010000</v>
+        <v>-1386.01</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>64092.534243</v>
+        <v>64092.534243000002</v>
       </c>
       <c r="B12" s="1">
-        <v>17.803482</v>
+        <v>17.803481999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>897.501000</v>
+        <v>897.50099999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.865000</v>
+        <v>-202.86500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>64102.957174</v>
+        <v>64102.957174000003</v>
       </c>
       <c r="G12" s="1">
-        <v>17.806377</v>
+        <v>17.806377000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>915.639000</v>
+        <v>915.63900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.937000</v>
+        <v>-171.93700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>64113.741223</v>
+        <v>64113.741222999997</v>
       </c>
       <c r="L12" s="1">
-        <v>17.809373</v>
+        <v>17.809373000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.286000</v>
+        <v>940.28599999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.048000</v>
+        <v>-122.048</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>64124.002427</v>
+        <v>64124.002426999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.812223</v>
+        <v>17.812222999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.259000</v>
+        <v>947.25900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.461000</v>
+        <v>-105.461</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>64134.537949</v>
+        <v>64134.537948999998</v>
       </c>
       <c r="V12" s="1">
-        <v>17.815149</v>
+        <v>17.815149000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>954.077000</v>
+        <v>954.077</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.069300</v>
+        <v>-90.069299999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>64144.740654</v>
+        <v>64144.740654000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.817984</v>
+        <v>17.817983999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.363000</v>
+        <v>961.36300000000006</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.883600</v>
+        <v>-77.883600000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>64154.930973</v>
+        <v>64154.930973000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.820814</v>
+        <v>17.820813999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.186000</v>
+        <v>966.18600000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.380400</v>
+        <v>-75.380399999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>64165.125269</v>
+        <v>64165.125268999996</v>
       </c>
       <c r="AK12" s="1">
         <v>17.823646</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.848500</v>
+        <v>-79.848500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>64175.883461</v>
+        <v>64175.883460999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.826634</v>
+        <v>17.826633999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.602000</v>
+        <v>981.60199999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.217200</v>
+        <v>-91.217200000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>64186.957142</v>
+        <v>64186.957141999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.829710</v>
+        <v>17.829709999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.557000</v>
+        <v>991.55700000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.676000</v>
+        <v>-108.676</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>64197.586931</v>
+        <v>64197.586930999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>17.832663</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.921000</v>
+        <v>999.92100000000005</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.131000</v>
+        <v>-124.131</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>64208.561420</v>
+        <v>64208.561419999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.835712</v>
+        <v>17.835712000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.098000</v>
+        <v>-195.09800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>64219.835488</v>
+        <v>64219.835487999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.838843</v>
+        <v>17.838843000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.549000</v>
+        <v>-309.54899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>64231.289100</v>
+        <v>64231.289100000002</v>
       </c>
       <c r="BO12" s="1">
         <v>17.842025</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.149000</v>
+        <v>-489.149</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>64242.032413</v>
+        <v>64242.032413000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.845009</v>
+        <v>17.845009000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1334.950000</v>
+        <v>1334.95</v>
       </c>
       <c r="BV12" s="1">
-        <v>-685.195000</v>
+        <v>-685.19500000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>64252.866031</v>
+        <v>64252.866030999998</v>
       </c>
       <c r="BY12" s="1">
         <v>17.848018</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1469.770000</v>
+        <v>1469.77</v>
       </c>
       <c r="CA12" s="1">
-        <v>-893.828000</v>
+        <v>-893.82799999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>64264.768031</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.851324</v>
+        <v>17.851324000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1820.800000</v>
+        <v>1820.8</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1385.940000</v>
+        <v>-1385.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>64092.875490</v>
+        <v>64092.875489999999</v>
       </c>
       <c r="B13" s="1">
-        <v>17.803577</v>
+        <v>17.803577000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>897.562000</v>
+        <v>897.56200000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.986000</v>
+        <v>-202.98599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>64103.607924</v>
+        <v>64103.607924000004</v>
       </c>
       <c r="G13" s="1">
-        <v>17.806558</v>
+        <v>17.806557999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>915.915000</v>
+        <v>915.91499999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.458000</v>
+        <v>-171.458</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>64114.126582</v>
+        <v>64114.126581999997</v>
       </c>
       <c r="L13" s="1">
-        <v>17.809480</v>
+        <v>17.809480000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.233000</v>
+        <v>940.23299999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.054000</v>
+        <v>-122.054</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>64124.391289</v>
+        <v>64124.391288999999</v>
       </c>
       <c r="Q13" s="1">
         <v>17.812331</v>
       </c>
       <c r="R13" s="1">
-        <v>947.232000</v>
+        <v>947.23199999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.465000</v>
+        <v>-105.465</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>64134.882171</v>
+        <v>64134.882170999997</v>
       </c>
       <c r="V13" s="1">
-        <v>17.815245</v>
+        <v>17.815245000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>954.102000</v>
+        <v>954.10199999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.931000</v>
+        <v>-89.930999999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>64145.084891</v>
+        <v>64145.084890999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.818079</v>
+        <v>17.818079000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.352000</v>
+        <v>961.35199999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.859300</v>
+        <v>-77.859300000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>64155.272705</v>
+        <v>64155.272705000003</v>
       </c>
       <c r="AF13" s="1">
         <v>17.820909</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.105000</v>
+        <v>966.10500000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.562400</v>
+        <v>-75.562399999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>64165.546834</v>
+        <v>64165.546834000001</v>
       </c>
       <c r="AK13" s="1">
         <v>17.823763</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.476000</v>
+        <v>973.476</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.848000</v>
+        <v>-79.847999999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>64176.313526</v>
+        <v>64176.313525999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.826754</v>
+        <v>17.826754000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.614000</v>
+        <v>981.61400000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.215600</v>
+        <v>-91.215599999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>64187.263669</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.829795</v>
+        <v>17.829795000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.553000</v>
+        <v>991.553</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>64197.946007</v>
+        <v>64197.946006999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>17.832763</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.883000</v>
+        <v>999.88300000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.105000</v>
+        <v>-124.105</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>64208.922970</v>
+        <v>64208.92297</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.835812</v>
+        <v>17.835812000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.083000</v>
+        <v>-195.083</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>64220.205962</v>
@@ -3488,43 +3904,43 @@
         <v>17.838946</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.538000</v>
+        <v>-309.53800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>64231.712186</v>
+        <v>64231.712185999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.842142</v>
+        <v>17.842141999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.159000</v>
+        <v>-489.15899999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>64242.465917</v>
+        <v>64242.465917000001</v>
       </c>
       <c r="BT13" s="1">
         <v>17.845129</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.050000</v>
+        <v>1335.05</v>
       </c>
       <c r="BV13" s="1">
-        <v>-685.131000</v>
+        <v>-685.13099999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>64253.288623</v>
@@ -3533,1677 +3949,1677 @@
         <v>17.848136</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1469.830000</v>
+        <v>1469.83</v>
       </c>
       <c r="CA13" s="1">
-        <v>-893.735000</v>
+        <v>-893.73500000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>64265.318130</v>
+        <v>64265.31813</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.851477</v>
+        <v>17.851476999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.380000</v>
+        <v>1821.38</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1386.710000</v>
+        <v>-1386.71</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>64093.529217</v>
+        <v>64093.529217000003</v>
       </c>
       <c r="B14" s="1">
-        <v>17.803758</v>
+        <v>17.803757999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>897.430000</v>
+        <v>897.43</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.902000</v>
+        <v>-202.90199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>64103.989857</v>
       </c>
       <c r="G14" s="1">
-        <v>17.806664</v>
+        <v>17.806664000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>915.801000</v>
+        <v>915.80100000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.113000</v>
+        <v>-172.113</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>64114.471303</v>
+        <v>64114.471302999998</v>
       </c>
       <c r="L14" s="1">
-        <v>17.809575</v>
+        <v>17.809574999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.150000</v>
+        <v>940.15</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.027000</v>
+        <v>-122.027</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>64124.739025</v>
+        <v>64124.739025000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.812428</v>
+        <v>17.812428000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>947.233000</v>
+        <v>947.23299999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.429000</v>
+        <v>-105.429</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>64135.232346</v>
+        <v>64135.232345999997</v>
       </c>
       <c r="V14" s="1">
-        <v>17.815342</v>
+        <v>17.815342000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>954.052000</v>
+        <v>954.05200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.953400</v>
+        <v>-89.953400000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>64145.431582</v>
+        <v>64145.431581999997</v>
       </c>
       <c r="AA14" s="1">
         <v>17.818175</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.431000</v>
+        <v>961.43100000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.857100</v>
+        <v>-77.857100000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>64155.693840</v>
+        <v>64155.69384</v>
       </c>
       <c r="AF14" s="1">
         <v>17.821026</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.403000</v>
+        <v>966.40300000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.485000</v>
+        <v>-75.484999999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>64165.821122</v>
+        <v>64165.821122000001</v>
       </c>
       <c r="AK14" s="1">
         <v>17.823839</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.428000</v>
+        <v>973.428</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.831700</v>
+        <v>-79.831699999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>64176.602660</v>
+        <v>64176.602659999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.826834</v>
+        <v>17.826834000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.621000</v>
+        <v>981.62099999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.214800</v>
+        <v>-91.214799999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>64187.627501</v>
+        <v>64187.627501000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.829897</v>
+        <v>17.829896999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.538000</v>
+        <v>991.53800000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>64198.304157</v>
+        <v>64198.304156999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.832862</v>
+        <v>17.832861999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.878000</v>
+        <v>999.87800000000004</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.130000</v>
+        <v>-124.13</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>64209.287066</v>
+        <v>64209.287065999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.835913</v>
+        <v>17.835913000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.104000</v>
+        <v>-195.10400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>64220.975294</v>
+        <v>64220.975294000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.839160</v>
+        <v>17.83916</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.600000</v>
+        <v>-309.60000000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>64232.108954</v>
+        <v>64232.108954000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.842252</v>
+        <v>17.842251999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.164000</v>
+        <v>-489.16399999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>64242.883580</v>
+        <v>64242.883580000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.845245</v>
+        <v>17.845244999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.170000</v>
+        <v>1335.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-685.203000</v>
+        <v>-685.20299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>64253.710750</v>
+        <v>64253.710749999998</v>
       </c>
       <c r="BY14" s="1">
         <v>17.848253</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1469.810000</v>
+        <v>1469.81</v>
       </c>
       <c r="CA14" s="1">
-        <v>-893.753000</v>
+        <v>-893.75300000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>64266.158850</v>
+        <v>64266.15885</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.851711</v>
+        <v>17.851711000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1820.800000</v>
+        <v>1820.8</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1386.080000</v>
+        <v>-1386.08</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>64093.899232</v>
+        <v>64093.899232000003</v>
       </c>
       <c r="B15" s="1">
-        <v>17.803861</v>
+        <v>17.803861000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>897.302000</v>
+        <v>897.30200000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.983000</v>
+        <v>-202.983</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>64104.334963</v>
+        <v>64104.334963000001</v>
       </c>
       <c r="G15" s="1">
-        <v>17.806760</v>
+        <v>17.806760000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>916.168000</v>
+        <v>916.16800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.300000</v>
+        <v>-171.3</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>64114.818038</v>
+        <v>64114.818037999998</v>
       </c>
       <c r="L15" s="1">
-        <v>17.809672</v>
+        <v>17.809671999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.062000</v>
+        <v>940.06200000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.161000</v>
+        <v>-122.161</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>64125.085688</v>
+        <v>64125.085687999999</v>
       </c>
       <c r="Q15" s="1">
         <v>17.812524</v>
       </c>
       <c r="R15" s="1">
-        <v>947.247000</v>
+        <v>947.24699999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.425000</v>
+        <v>-105.425</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>64135.653978</v>
+        <v>64135.653978000002</v>
       </c>
       <c r="V15" s="1">
-        <v>17.815459</v>
+        <v>17.815459000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.092000</v>
+        <v>954.09199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.966100</v>
+        <v>-89.966099999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>64145.914188</v>
+        <v>64145.914188000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.818309</v>
+        <v>17.818308999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.418000</v>
+        <v>961.41800000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.943200</v>
+        <v>-77.943200000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>64155.971600</v>
+        <v>64155.971599999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.821103</v>
+        <v>17.821103000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.475000</v>
+        <v>966.47500000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.425900</v>
+        <v>-75.425899999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>64166.170819</v>
+        <v>64166.170818999999</v>
       </c>
       <c r="AK15" s="1">
         <v>17.823936</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.449000</v>
+        <v>973.44899999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.850700</v>
+        <v>-79.850700000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>64176.967715</v>
+        <v>64176.967714999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.826935</v>
+        <v>17.826934999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.605000</v>
+        <v>981.60500000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.236700</v>
+        <v>-91.236699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>64187.991797</v>
+        <v>64187.991797000002</v>
       </c>
       <c r="AU15" s="1">
         <v>17.829998</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.572000</v>
+        <v>991.572</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.698000</v>
+        <v>-108.69799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>64199.021335</v>
+        <v>64199.021334999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.833061</v>
+        <v>17.833061000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.910000</v>
+        <v>999.91</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.125000</v>
+        <v>-124.125</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>64210.005737</v>
+        <v>64210.005736999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.836113</v>
+        <v>17.836113000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.086000</v>
+        <v>-195.08600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>64221.350760</v>
+        <v>64221.350760000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>17.839264</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.575000</v>
+        <v>-309.57499999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>64232.532538</v>
+        <v>64232.532537999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.842370</v>
+        <v>17.842369999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.184000</v>
+        <v>-489.18400000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>64243.313118</v>
+        <v>64243.313117999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.845365</v>
+        <v>17.845365000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.200000</v>
+        <v>1335.2</v>
       </c>
       <c r="BV15" s="1">
-        <v>-685.238000</v>
+        <v>-685.23800000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>64254.475550</v>
+        <v>64254.475550000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.848465</v>
+        <v>17.848465000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.780000</v>
+        <v>1469.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-893.763000</v>
+        <v>-893.76300000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>64266.397892</v>
+        <v>64266.397892000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.851777</v>
+        <v>17.851776999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1820.050000</v>
+        <v>1820.05</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1386.940000</v>
+        <v>-1386.94</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>64094.241511</v>
       </c>
       <c r="B16" s="1">
-        <v>17.803956</v>
+        <v>17.803955999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>897.462000</v>
+        <v>897.46199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.970000</v>
+        <v>-202.97</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>64104.677794</v>
+        <v>64104.677794000003</v>
       </c>
       <c r="G16" s="1">
-        <v>17.806855</v>
+        <v>17.806854999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>915.886000</v>
+        <v>915.88599999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.076000</v>
+        <v>-172.07599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>64115.252501</v>
+        <v>64115.252501000003</v>
       </c>
       <c r="L16" s="1">
-        <v>17.809792</v>
+        <v>17.809792000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>940.147000</v>
+        <v>940.14700000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-122.099000</v>
+        <v>-122.099</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>64125.502327</v>
+        <v>64125.502327000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.812640</v>
+        <v>17.812639999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>947.247000</v>
+        <v>947.24699999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.443000</v>
+        <v>-105.443</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>64135.935177</v>
+        <v>64135.935176999999</v>
       </c>
       <c r="V16" s="1">
         <v>17.815538</v>
       </c>
       <c r="W16" s="1">
-        <v>954.095000</v>
+        <v>954.09500000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.895800</v>
+        <v>-89.895799999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>64146.142845</v>
+        <v>64146.142845000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.818373</v>
+        <v>17.818373000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.414000</v>
+        <v>961.41399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.914100</v>
+        <v>-77.914100000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>64156.315790</v>
+        <v>64156.315790000001</v>
       </c>
       <c r="AF16" s="1">
         <v>17.821199</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.200000</v>
+        <v>966.2</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.280500</v>
+        <v>-75.280500000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>64166.521511</v>
+        <v>64166.521510999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.824034</v>
+        <v>17.824034000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.847200</v>
+        <v>-79.847200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>64177.327314</v>
+        <v>64177.327314000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.827035</v>
+        <v>17.827034999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.603000</v>
+        <v>981.60299999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.231100</v>
+        <v>-91.231099999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>64188.723395</v>
+        <v>64188.723395000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.830201</v>
+        <v>17.830200999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.551000</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.671000</v>
+        <v>-108.67100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>64199.380935</v>
+        <v>64199.380935000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>17.833161</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.909000</v>
+        <v>999.90899999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.131000</v>
+        <v>-124.131</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>64210.366824</v>
+        <v>64210.366823999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.836213</v>
+        <v>17.836213000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.077000</v>
+        <v>-195.077</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>64221.726201</v>
+        <v>64221.726200999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>17.839368</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.606000</v>
+        <v>-309.60599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>64233.242808</v>
+        <v>64233.242808000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.842567</v>
+        <v>17.842566999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.144000</v>
+        <v>-489.14400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>64244.030299</v>
+        <v>64244.030298999998</v>
       </c>
       <c r="BT16" s="1">
         <v>17.845564</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.280000</v>
+        <v>1335.28</v>
       </c>
       <c r="BV16" s="1">
-        <v>-685.273000</v>
+        <v>-685.27300000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>64254.585692</v>
+        <v>64254.585692000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.848496</v>
+        <v>17.848496000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.800000</v>
+        <v>1469.8</v>
       </c>
       <c r="CA16" s="1">
-        <v>-893.825000</v>
+        <v>-893.82500000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>64266.936541</v>
+        <v>64266.936541000003</v>
       </c>
       <c r="CD16" s="1">
         <v>17.851927</v>
       </c>
       <c r="CE16" s="1">
-        <v>1821.220000</v>
+        <v>1821.22</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1387.320000</v>
+        <v>-1387.32</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>64094.585975</v>
+        <v>64094.585975000002</v>
       </c>
       <c r="B17" s="1">
-        <v>17.804052</v>
+        <v>17.804051999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>897.477000</v>
+        <v>897.47699999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-203.117000</v>
+        <v>-203.11699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>64105.104888</v>
+        <v>64105.104888000002</v>
       </c>
       <c r="G17" s="1">
         <v>17.806974</v>
       </c>
       <c r="H17" s="1">
-        <v>916.038000</v>
+        <v>916.03800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.808000</v>
+        <v>-171.80799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>64115.531780</v>
+        <v>64115.531779999998</v>
       </c>
       <c r="L17" s="1">
-        <v>17.809870</v>
+        <v>17.80987</v>
       </c>
       <c r="M17" s="1">
-        <v>940.224000</v>
+        <v>940.22400000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.034000</v>
+        <v>-122.03400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>64125.796002</v>
+        <v>64125.796002000003</v>
       </c>
       <c r="Q17" s="1">
         <v>17.812721</v>
       </c>
       <c r="R17" s="1">
-        <v>947.272000</v>
+        <v>947.27200000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.393000</v>
+        <v>-105.393</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>64136.278941</v>
+        <v>64136.278940999997</v>
       </c>
       <c r="V17" s="1">
-        <v>17.815633</v>
+        <v>17.815632999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>954.171000</v>
+        <v>954.17100000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.927900</v>
+        <v>-89.927899999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>64146.489548</v>
+        <v>64146.489547999998</v>
       </c>
       <c r="AA17" s="1">
         <v>17.818469</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.421000</v>
+        <v>961.42100000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.895900</v>
+        <v>-77.895899999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>64156.661006</v>
+        <v>64156.661006000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.821295</v>
+        <v>17.821294999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.390000</v>
+        <v>966.39</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.367300</v>
+        <v>-75.3673</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>64167.216883</v>
+        <v>64167.216883000001</v>
       </c>
       <c r="AK17" s="1">
         <v>17.824227</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.451000</v>
+        <v>973.45100000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.844200</v>
+        <v>-79.844200000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>64178.054947</v>
+        <v>64178.054946999997</v>
       </c>
       <c r="AP17" s="1">
         <v>17.827237</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.596000</v>
+        <v>981.596</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.219800</v>
+        <v>-91.219800000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>64189.113747</v>
+        <v>64189.113747000003</v>
       </c>
       <c r="AU17" s="1">
         <v>17.830309</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.565000</v>
+        <v>991.56500000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>64199.741061</v>
+        <v>64199.741061000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>17.833261</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.894000</v>
+        <v>999.89400000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.145000</v>
+        <v>-124.145</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>64210.727911</v>
+        <v>64210.727911000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.836313</v>
+        <v>17.836313000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.070000</v>
+        <v>-195.07</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>64222.413682</v>
+        <v>64222.413681999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.839559</v>
+        <v>17.839559000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.830000</v>
+        <v>1105.83</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.619000</v>
+        <v>-309.61900000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>64233.350473</v>
+        <v>64233.350472999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.842597</v>
+        <v>17.842597000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.124000</v>
+        <v>-489.12400000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>64244.157807</v>
+        <v>64244.157807000003</v>
       </c>
       <c r="BT17" s="1">
         <v>17.845599</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.310000</v>
+        <v>1335.31</v>
       </c>
       <c r="BV17" s="1">
-        <v>-685.355000</v>
+        <v>-685.35500000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>64255.019166</v>
+        <v>64255.019165999998</v>
       </c>
       <c r="BY17" s="1">
         <v>17.848616</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1469.840000</v>
+        <v>1469.84</v>
       </c>
       <c r="CA17" s="1">
-        <v>-893.930000</v>
+        <v>-893.93</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>64267.475692</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.852077</v>
+        <v>17.852077000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1820.030000</v>
+        <v>1820.03</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.880000</v>
+        <v>-1385.88</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>64095.019105</v>
+        <v>64095.019104999999</v>
       </c>
       <c r="B18" s="1">
-        <v>17.804172</v>
+        <v>17.804172000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.595000</v>
+        <v>897.59500000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.021000</v>
+        <v>-203.02099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64105.378178</v>
+        <v>64105.378177999999</v>
       </c>
       <c r="G18" s="1">
-        <v>17.807049</v>
+        <v>17.807048999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.372000</v>
+        <v>916.37199999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.722000</v>
+        <v>-171.72200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>64115.877495</v>
+        <v>64115.877495000001</v>
       </c>
       <c r="L18" s="1">
-        <v>17.809966</v>
+        <v>17.809965999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.133000</v>
+        <v>940.13300000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.095000</v>
+        <v>-122.095</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>64126.145640</v>
+        <v>64126.145640000002</v>
       </c>
       <c r="Q18" s="1">
         <v>17.812818</v>
       </c>
       <c r="R18" s="1">
-        <v>947.239000</v>
+        <v>947.23900000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.475000</v>
+        <v>-105.47499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>64136.618168</v>
+        <v>64136.618168000001</v>
       </c>
       <c r="V18" s="1">
-        <v>17.815727</v>
+        <v>17.815726999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.031000</v>
+        <v>954.03099999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.860100</v>
+        <v>-89.860100000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>64147.188943</v>
+        <v>64147.188943000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.818664</v>
+        <v>17.818663999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.435000</v>
+        <v>961.43499999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.948500</v>
+        <v>-77.948499999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>64157.347083</v>
+        <v>64157.347083000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.821485</v>
+        <v>17.821484999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.254000</v>
+        <v>966.25400000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.362300</v>
+        <v>-75.362300000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>64167.567567</v>
+        <v>64167.567566999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.824324</v>
+        <v>17.824324000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.487000</v>
+        <v>973.48699999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.847800</v>
+        <v>-79.847800000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>64178.437361</v>
+        <v>64178.437360999997</v>
       </c>
       <c r="AP18" s="1">
         <v>17.827344</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.609000</v>
+        <v>981.60900000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.211600</v>
+        <v>-91.211600000000004</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>64189.476821</v>
+        <v>64189.476820999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.830410</v>
+        <v>17.830410000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.537000</v>
+        <v>991.53700000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.667000</v>
+        <v>-108.667</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>64200.410660</v>
+        <v>64200.410660000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>17.833447</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.902000</v>
+        <v>999.90200000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.133000</v>
+        <v>-124.133</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>64211.392054</v>
+        <v>64211.392054000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.836498</v>
+        <v>17.836497999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.081000</v>
+        <v>-195.08099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>64222.883872</v>
+        <v>64222.883871999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.839690</v>
+        <v>17.839690000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.830000</v>
+        <v>1105.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.613000</v>
+        <v>-309.613</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>64233.771049</v>
+        <v>64233.771049000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.842714</v>
+        <v>17.842714000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.107000</v>
+        <v>-489.10700000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>64244.595242</v>
+        <v>64244.595242000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.845721</v>
+        <v>17.845721000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.340000</v>
+        <v>1335.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-685.442000</v>
+        <v>-685.44200000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>64255.441291</v>
+        <v>64255.441291000003</v>
       </c>
       <c r="BY18" s="1">
         <v>17.848734</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1469.860000</v>
+        <v>1469.86</v>
       </c>
       <c r="CA18" s="1">
-        <v>-893.826000</v>
+        <v>-893.82600000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>64268.013883</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.852226</v>
+        <v>17.852226000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1820.240000</v>
+        <v>1820.24</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1387.470000</v>
+        <v>-1387.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>64095.286544</v>
+        <v>64095.286544000002</v>
       </c>
       <c r="B19" s="1">
-        <v>17.804246</v>
+        <v>17.804245999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>897.548000</v>
+        <v>897.548</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.972000</v>
+        <v>-202.97200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>64105.720881</v>
+        <v>64105.720881000001</v>
       </c>
       <c r="G19" s="1">
-        <v>17.807145</v>
+        <v>17.807144999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>916.240000</v>
+        <v>916.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.677000</v>
+        <v>-171.67699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>64116.222181</v>
+        <v>64116.222180999997</v>
       </c>
       <c r="L19" s="1">
-        <v>17.810062</v>
+        <v>17.810061999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.073000</v>
+        <v>940.07299999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.050000</v>
+        <v>-122.05</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>64126.491846</v>
+        <v>64126.491845999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.812914</v>
+        <v>17.812913999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>947.207000</v>
+        <v>947.20699999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.442000</v>
+        <v>-105.44199999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>64137.307639</v>
+        <v>64137.307638999999</v>
       </c>
       <c r="V19" s="1">
-        <v>17.815919</v>
+        <v>17.815919000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.017000</v>
+        <v>954.01700000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.035300</v>
+        <v>-90.035300000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>64147.539115</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.818761</v>
+        <v>17.818760999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.495000</v>
+        <v>961.495</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.854500</v>
+        <v>-77.854500000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>64157.691228</v>
+        <v>64157.691228000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.821581</v>
+        <v>17.821580999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.208000</v>
+        <v>966.20799999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.407300</v>
+        <v>-75.407300000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>64167.914742</v>
+        <v>64167.914742000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.824421</v>
+        <v>17.824421000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.463000</v>
+        <v>973.46299999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.836400</v>
+        <v>-79.836399999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>64178.794481</v>
+        <v>64178.794480999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.827443</v>
+        <v>17.827442999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.600000</v>
+        <v>981.6</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.214200</v>
+        <v>-91.214200000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>64190.163283</v>
+        <v>64190.163283000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.830601</v>
+        <v>17.830601000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.560000</v>
+        <v>991.56</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.672000</v>
+        <v>-108.672</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>64200.815894</v>
+        <v>64200.815893999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.833560</v>
+        <v>17.833559999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.903000</v>
+        <v>999.90300000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.144000</v>
+        <v>-124.14400000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>64211.845397</v>
+        <v>64211.845396999997</v>
       </c>
       <c r="BE19" s="1">
         <v>17.836624</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.084000</v>
+        <v>-195.084</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>64223.273718</v>
+        <v>64223.273717999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.839798</v>
+        <v>17.839797999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.527000</v>
+        <v>-309.52699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>64234.170853</v>
+        <v>64234.170853000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.842825</v>
+        <v>17.842825000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.149000</v>
+        <v>-489.149</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>64245.022520</v>
+        <v>64245.022519999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.845840</v>
+        <v>17.845839999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="BV19" s="1">
-        <v>-685.563000</v>
+        <v>-685.56299999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>64255.862399</v>
+        <v>64255.862398999998</v>
       </c>
       <c r="BY19" s="1">
         <v>17.848851</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.800000</v>
+        <v>1469.8</v>
       </c>
       <c r="CA19" s="1">
-        <v>-893.783000</v>
+        <v>-893.78300000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>64268.553768</v>
+        <v>64268.553767999998</v>
       </c>
       <c r="CD19" s="1">
         <v>17.852376</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.320000</v>
+        <v>1821.32</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1386.120000</v>
+        <v>-1386.12</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>64095.624815</v>
+        <v>64095.624815000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.804340</v>
+        <v>17.80434</v>
       </c>
       <c r="C20" s="1">
-        <v>897.457000</v>
+        <v>897.45699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.016000</v>
+        <v>-203.01599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>64106.064609</v>
+        <v>64106.064609000001</v>
       </c>
       <c r="G20" s="1">
-        <v>17.807240</v>
+        <v>17.80724</v>
       </c>
       <c r="H20" s="1">
-        <v>916.392000</v>
+        <v>916.39200000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.711000</v>
+        <v>-171.71100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>64116.919595</v>
+        <v>64116.919594999999</v>
       </c>
       <c r="L20" s="1">
-        <v>17.810255</v>
+        <v>17.810255000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.306000</v>
+        <v>940.30600000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.099000</v>
+        <v>-122.099</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>64127.189717</v>
+        <v>64127.189717000001</v>
       </c>
       <c r="Q20" s="1">
         <v>17.813108</v>
       </c>
       <c r="R20" s="1">
-        <v>947.245000</v>
+        <v>947.245</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.438000</v>
+        <v>-105.438</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>64137.652364</v>
+        <v>64137.652364000001</v>
       </c>
       <c r="V20" s="1">
         <v>17.816015</v>
       </c>
       <c r="W20" s="1">
-        <v>953.988000</v>
+        <v>953.98800000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.003600</v>
+        <v>-90.003600000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>64147.882811</v>
+        <v>64147.882811000003</v>
       </c>
       <c r="AA20" s="1">
         <v>17.818856</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.376000</v>
+        <v>961.37599999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.847400</v>
+        <v>-77.847399999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>64158.035917</v>
+        <v>64158.035917000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.821677</v>
+        <v>17.821677000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.157000</v>
+        <v>966.15700000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.394700</v>
+        <v>-75.3947</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>64168.585326</v>
@@ -5212,1071 +5628,1071 @@
         <v>17.824607</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.447000</v>
+        <v>973.447</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.856300</v>
+        <v>-79.856300000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>64179.504256</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.827640</v>
+        <v>17.827639999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.601000</v>
+        <v>981.601</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.222800</v>
+        <v>-91.222800000000007</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>64190.605713</v>
+        <v>64190.605712999997</v>
       </c>
       <c r="AU20" s="1">
         <v>17.830724</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.560000</v>
+        <v>991.56</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>64201.202739</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.833667</v>
+        <v>17.833666999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.922000</v>
+        <v>999.92200000000003</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.127000</v>
+        <v>-124.127</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>64212.201524</v>
+        <v>64212.201523999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.836723</v>
+        <v>17.836722999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.114000</v>
+        <v>-195.114</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>64223.647701</v>
+        <v>64223.647701000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.839902</v>
+        <v>17.839901999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.624000</v>
+        <v>-309.62400000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>64234.598407</v>
+        <v>64234.598406999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.842944</v>
+        <v>17.842943999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.154000</v>
+        <v>-489.154</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>64245.466713</v>
+        <v>64245.466713000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.845963</v>
+        <v>17.845963000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.320000</v>
+        <v>1335.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-685.647000</v>
+        <v>-685.64700000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>64256.288183</v>
+        <v>64256.288182999997</v>
       </c>
       <c r="BY20" s="1">
         <v>17.848969</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1469.870000</v>
+        <v>1469.87</v>
       </c>
       <c r="CA20" s="1">
-        <v>-893.889000</v>
+        <v>-893.88900000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>64269.094137</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.852526</v>
+        <v>17.852526000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1820.090000</v>
+        <v>1820.09</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1386.770000</v>
+        <v>-1386.77</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>64096.311279</v>
+        <v>64096.311279000001</v>
       </c>
       <c r="B21" s="1">
-        <v>17.804531</v>
+        <v>17.804531000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>897.453000</v>
+        <v>897.45299999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-203.025000</v>
+        <v>-203.02500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>64106.753552</v>
+        <v>64106.753552000002</v>
       </c>
       <c r="G21" s="1">
-        <v>17.807432</v>
+        <v>17.807431999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.207000</v>
+        <v>916.20699999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.981000</v>
+        <v>-171.98099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>64117.271220</v>
+        <v>64117.271220000002</v>
       </c>
       <c r="L21" s="1">
-        <v>17.810353</v>
+        <v>17.810352999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.297000</v>
+        <v>940.29700000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.947000</v>
+        <v>-121.947</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>64127.538900</v>
+        <v>64127.5389</v>
       </c>
       <c r="Q21" s="1">
         <v>17.813205</v>
       </c>
       <c r="R21" s="1">
-        <v>947.231000</v>
+        <v>947.23099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.401000</v>
+        <v>-105.401</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>64137.993114</v>
+        <v>64137.993113999997</v>
       </c>
       <c r="V21" s="1">
-        <v>17.816109</v>
+        <v>17.816109000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.068000</v>
+        <v>954.06799999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.019400</v>
+        <v>-90.019400000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>64148.553928</v>
+        <v>64148.553928000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.819043</v>
+        <v>17.819043000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.456000</v>
+        <v>961.45600000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.893000</v>
+        <v>-77.893000000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>64158.693643</v>
+        <v>64158.693642999999</v>
       </c>
       <c r="AF21" s="1">
         <v>17.821859</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.256000</v>
+        <v>966.25599999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.421400</v>
+        <v>-75.421400000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>64168.960334</v>
+        <v>64168.960334000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.824711</v>
+        <v>17.824711000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.449000</v>
+        <v>973.44899999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.820500</v>
+        <v>-79.820499999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>64179.873808</v>
+        <v>64179.873807999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.827743</v>
+        <v>17.827743000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.619000</v>
+        <v>981.61900000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.209700</v>
+        <v>-91.209699999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>64190.971760</v>
+        <v>64190.97176</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.830825</v>
+        <v>17.830825000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.539000</v>
+        <v>991.53899999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.669000</v>
+        <v>-108.669</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>64201.560356</v>
+        <v>64201.560356000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.833767</v>
+        <v>17.833767000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.890000</v>
+        <v>999.89</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.135000</v>
+        <v>-124.13500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>64212.581993</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.836828</v>
+        <v>17.836828000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>64224.072278</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.840020</v>
+        <v>17.840019999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.578000</v>
+        <v>-309.57799999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>64234.988726</v>
+        <v>64234.988726000003</v>
       </c>
       <c r="BO21" s="1">
         <v>17.843052</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.181000</v>
+        <v>-489.18099999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>64245.865000</v>
+        <v>64245.864999999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.846074</v>
+        <v>17.846074000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.170000</v>
+        <v>1335.17</v>
       </c>
       <c r="BV21" s="1">
-        <v>-685.657000</v>
+        <v>-685.65700000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>64256.704726</v>
+        <v>64256.704726000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.849085</v>
+        <v>17.849084999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1469.780000</v>
+        <v>1469.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-893.889000</v>
+        <v>-893.88900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>64269.633785</v>
+        <v>64269.633784999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.852676</v>
+        <v>17.852675999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1821.380000</v>
+        <v>1821.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1387.280000</v>
+        <v>-1387.28</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>64096.657981</v>
+        <v>64096.657980999997</v>
       </c>
       <c r="B22" s="1">
         <v>17.804627</v>
       </c>
       <c r="C22" s="1">
-        <v>897.571000</v>
+        <v>897.57100000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.015000</v>
+        <v>-203.01499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>64107.102241</v>
+        <v>64107.102241000001</v>
       </c>
       <c r="G22" s="1">
-        <v>17.807528</v>
+        <v>17.807528000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>915.948000</v>
+        <v>915.94799999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.448000</v>
+        <v>-171.44800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>64117.614946</v>
+        <v>64117.614946000002</v>
       </c>
       <c r="L22" s="1">
-        <v>17.810449</v>
+        <v>17.810448999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>940.232000</v>
+        <v>940.23199999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>64127.887621</v>
+        <v>64127.887621000002</v>
       </c>
       <c r="Q22" s="1">
         <v>17.813302</v>
       </c>
       <c r="R22" s="1">
-        <v>947.254000</v>
+        <v>947.25400000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.441000</v>
+        <v>-105.441</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>64138.648294</v>
+        <v>64138.648293999999</v>
       </c>
       <c r="V22" s="1">
         <v>17.816291</v>
       </c>
       <c r="W22" s="1">
-        <v>954.116000</v>
+        <v>954.11599999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.946800</v>
+        <v>-89.946799999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>64148.928874</v>
+        <v>64148.928873999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.819147</v>
+        <v>17.819147000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.343000</v>
+        <v>961.34299999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.859600</v>
+        <v>-77.8596</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>64159.062648</v>
+        <v>64159.062647999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.821962</v>
+        <v>17.821961999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.134000</v>
+        <v>966.13400000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.362500</v>
+        <v>-75.362499999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>64169.309981</v>
+        <v>64169.309980999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.824808</v>
+        <v>17.824808000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.456000</v>
+        <v>973.45600000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.862900</v>
+        <v>-79.862899999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>64180.234366</v>
+        <v>64180.234365999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.827843</v>
+        <v>17.827843000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.622000</v>
+        <v>981.62199999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.228100</v>
+        <v>-91.228099999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>64191.332848</v>
+        <v>64191.332847999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.830926</v>
+        <v>17.830926000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.554000</v>
+        <v>991.55399999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>64201.985426</v>
+        <v>64201.985425999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.833885</v>
+        <v>17.833884999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.914000</v>
+        <v>999.91399999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.138000</v>
+        <v>-124.13800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>64213.077988</v>
+        <v>64213.077987999997</v>
       </c>
       <c r="BE22" s="1">
         <v>17.836966</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>64224.398652</v>
+        <v>64224.398652000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>17.840111</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.569000</v>
+        <v>-309.56900000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>64235.411814</v>
+        <v>64235.411813999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.843170</v>
+        <v>17.843170000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.167000</v>
+        <v>-489.16699999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>64246.300983</v>
+        <v>64246.300983000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.846195</v>
+        <v>17.846195000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.150000</v>
+        <v>1335.15</v>
       </c>
       <c r="BV22" s="1">
-        <v>-685.782000</v>
+        <v>-685.78200000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>64257.148985</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.849208</v>
+        <v>17.849208000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1469.830000</v>
+        <v>1469.83</v>
       </c>
       <c r="CA22" s="1">
-        <v>-893.770000</v>
+        <v>-893.77</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>64270.173928</v>
+        <v>64270.173927999997</v>
       </c>
       <c r="CD22" s="1">
         <v>17.852826</v>
       </c>
       <c r="CE22" s="1">
-        <v>1820.240000</v>
+        <v>1820.24</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1385.850000</v>
+        <v>-1385.85</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>64096.999761</v>
+        <v>64096.999760999999</v>
       </c>
       <c r="B23" s="1">
-        <v>17.804722</v>
+        <v>17.804722000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>897.447000</v>
+        <v>897.447</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.018000</v>
+        <v>-203.018</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>64107.451423</v>
+        <v>64107.451422999999</v>
       </c>
       <c r="G23" s="1">
-        <v>17.807625</v>
+        <v>17.807625000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>916.267000</v>
+        <v>916.26700000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-172.138000</v>
+        <v>-172.13800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>64118.268178</v>
+        <v>64118.268177999998</v>
       </c>
       <c r="L23" s="1">
-        <v>17.810630</v>
+        <v>17.81063</v>
       </c>
       <c r="M23" s="1">
-        <v>940.315000</v>
+        <v>940.31500000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.992000</v>
+        <v>-121.992</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>64128.569091</v>
+        <v>64128.569090999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.813491</v>
+        <v>17.813490999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>947.247000</v>
+        <v>947.24699999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.483000</v>
+        <v>-105.483</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>64139.023302</v>
+        <v>64139.023302000001</v>
       </c>
       <c r="V23" s="1">
         <v>17.816395</v>
       </c>
       <c r="W23" s="1">
-        <v>953.976000</v>
+        <v>953.976</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.995700</v>
+        <v>-89.995699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>64149.278056</v>
+        <v>64149.278056000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.819244</v>
+        <v>17.819244000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.410000</v>
+        <v>961.41</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.839900</v>
+        <v>-77.8399</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>64159.409370</v>
+        <v>64159.409370000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.822058</v>
+        <v>17.822057999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.187000</v>
+        <v>966.18700000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.429400</v>
+        <v>-75.429400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>64169.659662</v>
+        <v>64169.659661999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.824905</v>
+        <v>17.824905000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.456000</v>
+        <v>973.45600000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.833200</v>
+        <v>-79.833200000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>64180.655470</v>
+        <v>64180.655469999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.827960</v>
+        <v>17.827960000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.609000</v>
+        <v>981.60900000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.231300</v>
+        <v>-91.231300000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>64191.764400</v>
+        <v>64191.7644</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.831046</v>
+        <v>17.831046000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.567000</v>
+        <v>991.56700000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.676000</v>
+        <v>-108.676</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>64202.279554</v>
+        <v>64202.279554000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.833967</v>
+        <v>17.833967000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.890000</v>
+        <v>999.89</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.133000</v>
+        <v>-124.133</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>64213.287764</v>
+        <v>64213.287764000001</v>
       </c>
       <c r="BE23" s="1">
         <v>17.837024</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.122000</v>
+        <v>-195.12200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>64224.782053</v>
+        <v>64224.782053000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.840217</v>
+        <v>17.840216999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.840000</v>
+        <v>1105.8399999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.630000</v>
+        <v>-309.63</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>64235.818037</v>
+        <v>64235.818036999997</v>
       </c>
       <c r="BO23" s="1">
         <v>17.843283</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.152000</v>
+        <v>-489.15199999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>64247.039526</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.846400</v>
+        <v>17.846399999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.050000</v>
+        <v>1335.05</v>
       </c>
       <c r="BV23" s="1">
-        <v>-685.768000</v>
+        <v>-685.76800000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>64257.574554</v>
+        <v>64257.574553999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.849326</v>
+        <v>17.849326000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.790000</v>
+        <v>1469.79</v>
       </c>
       <c r="CA23" s="1">
-        <v>-893.794000</v>
+        <v>-893.79399999999998</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>64270.712120</v>
+        <v>64270.712119999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.852976</v>
+        <v>17.852976000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1820.490000</v>
+        <v>1820.49</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1387.410000</v>
+        <v>-1387.41</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>64097.661921</v>
+        <v>64097.661920999999</v>
       </c>
       <c r="B24" s="1">
-        <v>17.804906</v>
+        <v>17.804905999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>897.546000</v>
+        <v>897.54600000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.990000</v>
+        <v>-202.99</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>64108.100688</v>
+        <v>64108.100687999999</v>
       </c>
       <c r="G24" s="1">
-        <v>17.807806</v>
+        <v>17.807805999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>916.198000</v>
+        <v>916.19799999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.015000</v>
+        <v>-172.01499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>64118.652080</v>
+        <v>64118.65208</v>
       </c>
       <c r="L24" s="1">
         <v>17.810737</v>
       </c>
       <c r="M24" s="1">
-        <v>940.221000</v>
+        <v>940.221</v>
       </c>
       <c r="N24" s="1">
-        <v>-122.144000</v>
+        <v>-122.14400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>64128.929682</v>
+        <v>64128.929682000002</v>
       </c>
       <c r="Q24" s="1">
         <v>17.813592</v>
       </c>
       <c r="R24" s="1">
-        <v>947.233000</v>
+        <v>947.23299999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.445000</v>
+        <v>-105.44499999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>64139.366005</v>
+        <v>64139.366005000003</v>
       </c>
       <c r="V24" s="1">
-        <v>17.816491</v>
+        <v>17.816490999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>954.224000</v>
+        <v>954.22400000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.957500</v>
+        <v>-89.957499999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>64149.629225</v>
+        <v>64149.629224999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.819341</v>
+        <v>17.819341000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.428000</v>
+        <v>961.428</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.839400</v>
+        <v>-77.839399999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>64159.761531</v>
+        <v>64159.761530999996</v>
       </c>
       <c r="AF24" s="1">
         <v>17.822156</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.160000</v>
+        <v>966.16</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.309900</v>
+        <v>-75.309899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>64170.080268</v>
+        <v>64170.080267999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.825022</v>
+        <v>17.825022000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.450000</v>
+        <v>973.45</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.829600</v>
+        <v>-79.829599999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>64180.955551</v>
+        <v>64180.955550999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.828043</v>
+        <v>17.828043000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.617000</v>
+        <v>981.61699999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.195900</v>
+        <v>-91.195899999999995</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>64192.064479</v>
+        <v>64192.064479000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.831129</v>
+        <v>17.831129000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.564000</v>
+        <v>991.56399999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.666000</v>
+        <v>-108.666</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>64202.636177</v>
@@ -6285,58 +6701,58 @@
         <v>17.834066</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.149000</v>
+        <v>-124.149</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>64213.647869</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.837124</v>
+        <v>17.837123999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.099000</v>
+        <v>-195.09899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>64225.171909</v>
+        <v>64225.171908999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.840326</v>
+        <v>17.840326000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.920000</v>
+        <v>1105.92</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.585000</v>
+        <v>-309.58499999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>64236.248565</v>
+        <v>64236.248565000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.843402</v>
+        <v>17.843402000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.164000</v>
+        <v>-489.16399999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>64247.165512</v>
@@ -6345,559 +6761,560 @@
         <v>17.846435</v>
       </c>
       <c r="BU24" s="1">
-        <v>1334.950000</v>
+        <v>1334.95</v>
       </c>
       <c r="BV24" s="1">
-        <v>-685.782000</v>
+        <v>-685.78200000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>64257.996687</v>
+        <v>64257.996686999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.849444</v>
+        <v>17.849443999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1469.760000</v>
+        <v>1469.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-893.847000</v>
+        <v>-893.84699999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>64271.253447</v>
+        <v>64271.253447000003</v>
       </c>
       <c r="CD24" s="1">
         <v>17.853126</v>
       </c>
       <c r="CE24" s="1">
-        <v>1821.400000</v>
+        <v>1821.4</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1386.270000</v>
+        <v>-1386.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>64098.022971</v>
+        <v>64098.022970999999</v>
       </c>
       <c r="B25" s="1">
-        <v>17.805006</v>
+        <v>17.805005999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>897.637000</v>
+        <v>897.63699999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.975000</v>
+        <v>-202.97499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>64108.484094</v>
+        <v>64108.484093999999</v>
       </c>
       <c r="G25" s="1">
-        <v>17.807912</v>
+        <v>17.807912000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>916.181000</v>
+        <v>916.18100000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.230000</v>
+        <v>-172.23</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>64118.995343</v>
+        <v>64118.995343000002</v>
       </c>
       <c r="L25" s="1">
-        <v>17.810832</v>
+        <v>17.810832000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.235000</v>
+        <v>940.23500000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.037000</v>
+        <v>-122.03700000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>64129.284324</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.813690</v>
+        <v>17.813690000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>947.231000</v>
+        <v>947.23099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.434000</v>
+        <v>-105.434</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>64139.710261</v>
       </c>
       <c r="V25" s="1">
-        <v>17.816586</v>
+        <v>17.816586000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.996000</v>
+        <v>953.99599999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.915900</v>
+        <v>-89.915899999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>64150.050359</v>
+        <v>64150.050359000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.819458</v>
+        <v>17.819458000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.382000</v>
+        <v>961.38199999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.856600</v>
+        <v>-77.8566</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>64160.178137</v>
+        <v>64160.178137000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.822272</v>
+        <v>17.822272000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.275000</v>
+        <v>966.27499999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.445300</v>
+        <v>-75.445300000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>64170.365468</v>
+        <v>64170.365468000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.825102</v>
+        <v>17.825102000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.451000</v>
+        <v>973.45100000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.832000</v>
+        <v>-79.831999999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>64181.315149</v>
+        <v>64181.315149000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.828143</v>
+        <v>17.828143000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.601000</v>
+        <v>981.601</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.193500</v>
+        <v>-91.1935</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>64192.429999</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.831231</v>
+        <v>17.831230999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.551000</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.677000</v>
+        <v>-108.67700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>64202.996770</v>
+        <v>64202.996769999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>17.834166</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.898000</v>
+        <v>999.89800000000002</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.117000</v>
+        <v>-124.117</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>64214.372018</v>
+        <v>64214.372018000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.837326</v>
+        <v>17.837326000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.095000</v>
+        <v>-195.095</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>64225.922391</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.840534</v>
+        <v>17.840534000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.840000</v>
+        <v>1105.8399999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.599000</v>
+        <v>-309.59899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>64236.627026</v>
+        <v>64236.627026000002</v>
       </c>
       <c r="BO25" s="1">
         <v>17.843508</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.162000</v>
+        <v>-489.16199999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>64247.578182</v>
+        <v>64247.578181999997</v>
       </c>
       <c r="BT25" s="1">
         <v>17.846549</v>
       </c>
       <c r="BU25" s="1">
-        <v>1334.890000</v>
+        <v>1334.89</v>
       </c>
       <c r="BV25" s="1">
-        <v>-685.774000</v>
+        <v>-685.774</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>64258.444537</v>
+        <v>64258.444537000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.849568</v>
+        <v>17.849568000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1469.880000</v>
+        <v>1469.88</v>
       </c>
       <c r="CA25" s="1">
-        <v>-893.851000</v>
+        <v>-893.851</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>64272.108341</v>
+        <v>64272.108340999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.853363</v>
+        <v>17.853363000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1820.690000</v>
+        <v>1820.69</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1387.450000</v>
+        <v>-1387.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>64098.365707</v>
+        <v>64098.365706999997</v>
       </c>
       <c r="B26" s="1">
-        <v>17.805102</v>
+        <v>17.805102000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>897.624000</v>
+        <v>897.62400000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.977000</v>
+        <v>-202.977</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>64108.827325</v>
+        <v>64108.827324999998</v>
       </c>
       <c r="G26" s="1">
-        <v>17.808008</v>
+        <v>17.808008000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>915.941000</v>
+        <v>915.94100000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.881000</v>
+        <v>-171.881</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>64119.344993</v>
+        <v>64119.344992999999</v>
       </c>
       <c r="L26" s="1">
-        <v>17.810929</v>
+        <v>17.810929000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>940.181000</v>
+        <v>940.18100000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.984000</v>
+        <v>-121.98399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>64129.905349</v>
+        <v>64129.905349000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.813863</v>
+        <v>17.813863000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>947.245000</v>
+        <v>947.245</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.417000</v>
+        <v>-105.417</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>64140.124420</v>
+        <v>64140.12442</v>
       </c>
       <c r="V26" s="1">
-        <v>17.816701</v>
+        <v>17.816700999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>954.004000</v>
+        <v>954.00400000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.929300</v>
+        <v>-89.929299999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>64150.321639</v>
+        <v>64150.321639000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.819534</v>
+        <v>17.819534000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.403000</v>
+        <v>961.40300000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.845600</v>
+        <v>-77.845600000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>64160.462346</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.822351</v>
+        <v>17.822351000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.112000</v>
+        <v>966.11199999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.439700</v>
+        <v>-75.439700000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>64170.711211</v>
+        <v>64170.711211000002</v>
       </c>
       <c r="AK26" s="1">
         <v>17.825198</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.843800</v>
+        <v>-79.843800000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>64181.675246</v>
+        <v>64181.675245999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.828243</v>
+        <v>17.828243000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.617000</v>
+        <v>981.61699999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.218400</v>
+        <v>-91.218400000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>64192.790590</v>
+        <v>64192.790589999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.831331</v>
+        <v>17.831330999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.555000</v>
+        <v>991.55499999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.670000</v>
+        <v>-108.67</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>64203.716000</v>
+        <v>64203.716</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.834366</v>
+        <v>17.834365999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.905000</v>
+        <v>999.90499999999997</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.140000</v>
+        <v>-124.14</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>64214.758507</v>
+        <v>64214.758506999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.837433</v>
+        <v>17.837433000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.089000</v>
+        <v>-195.089</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>64226.319650</v>
+        <v>64226.319649999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.840644</v>
+        <v>17.840644000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.562000</v>
+        <v>-309.56200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>64237.044644</v>
+        <v>64237.044644000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.843624</v>
+        <v>17.843623999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.197000</v>
+        <v>-489.197</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>64248.300870</v>
+        <v>64248.300869999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.846750</v>
+        <v>17.84675</v>
       </c>
       <c r="BU26" s="1">
-        <v>1334.840000</v>
+        <v>1334.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-685.614000</v>
+        <v>-685.61400000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>64259.182086</v>
+        <v>64259.182086000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.849773</v>
+        <v>17.849772999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1469.870000</v>
+        <v>1469.87</v>
       </c>
       <c r="CA26" s="1">
-        <v>-893.730000</v>
+        <v>-893.73</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>64272.333014</v>
+        <v>64272.333014000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.853426</v>
+        <v>17.853425999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1820.600000</v>
+        <v>1820.6</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1387.240000</v>
+        <v>-1387.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>